--- a/게임팀 일정표.xlsx
+++ b/게임팀 일정표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PORO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\Unity\Monologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통합캐릭터 러프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배경작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +294,10 @@
   </si>
   <si>
     <t>총괄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합캐릭터 러프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +306,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -535,72 +535,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,30 +593,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,28 +601,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -972,464 +972,464 @@
   <sheetData>
     <row r="2" spans="2:59" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:59" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="46"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="7" t="s">
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7" t="s">
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7" t="s">
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7" t="s">
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
     </row>
     <row r="4" spans="2:59" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="47"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="4">
         <v>44697</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <v>44704</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="5">
         <v>44711</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="3">
         <v>44718</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="4">
         <v>44725</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="4">
         <v>44732</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="5">
         <v>44739</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="3">
         <v>44746</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="4">
         <v>44753</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="4">
         <v>44760</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="5">
         <v>44767</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="3">
         <v>44774</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="4">
         <v>44781</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="4">
         <v>44788</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="5">
         <v>44795</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="3">
         <v>44802</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="4">
         <v>44809</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="4">
         <v>44816</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="5">
         <v>44823</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="3">
         <v>44830</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="4">
         <v>44837</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="4">
         <v>44844</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="5">
         <v>44851</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="3">
         <v>44858</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="4">
         <v>44865</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="4">
         <v>44872</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="5">
         <v>44879</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AF4" s="3">
         <v>44886</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="4">
         <v>44893</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="4">
         <v>44900</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="5">
         <v>44907</v>
       </c>
-      <c r="AJ4" s="9">
+      <c r="AJ4" s="3">
         <v>44914</v>
       </c>
-      <c r="AK4" s="10">
+      <c r="AK4" s="4">
         <v>44921</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AL4" s="4">
         <v>44928</v>
       </c>
-      <c r="AM4" s="11">
+      <c r="AM4" s="5">
         <v>44935</v>
       </c>
-      <c r="AN4" s="9">
+      <c r="AN4" s="3">
         <v>44942</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AO4" s="4">
         <v>44949</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AP4" s="4">
         <v>44956</v>
       </c>
-      <c r="AQ4" s="11">
+      <c r="AQ4" s="5">
         <v>44963</v>
       </c>
-      <c r="AR4" s="9">
+      <c r="AR4" s="3">
         <v>44970</v>
       </c>
-      <c r="AS4" s="10">
+      <c r="AS4" s="4">
         <v>44977</v>
       </c>
-      <c r="AT4" s="10">
+      <c r="AT4" s="4">
         <v>44984</v>
       </c>
-      <c r="AU4" s="11">
+      <c r="AU4" s="5">
         <v>44991</v>
       </c>
-      <c r="AV4" s="9">
+      <c r="AV4" s="3">
         <v>44998</v>
       </c>
-      <c r="AW4" s="10">
+      <c r="AW4" s="4">
         <v>45005</v>
       </c>
-      <c r="AX4" s="10">
+      <c r="AX4" s="4">
         <v>45012</v>
       </c>
-      <c r="AY4" s="11">
+      <c r="AY4" s="5">
         <v>45019</v>
       </c>
-      <c r="AZ4" s="9">
+      <c r="AZ4" s="3">
         <v>45026</v>
       </c>
-      <c r="BA4" s="10">
+      <c r="BA4" s="4">
         <v>45033</v>
       </c>
-      <c r="BB4" s="10">
+      <c r="BB4" s="4">
         <v>45040</v>
       </c>
-      <c r="BC4" s="11">
+      <c r="BC4" s="5">
         <v>45047</v>
       </c>
-      <c r="BD4" s="9">
+      <c r="BD4" s="3">
         <v>45054</v>
       </c>
-      <c r="BE4" s="10">
+      <c r="BE4" s="4">
         <v>45061</v>
       </c>
-      <c r="BF4" s="10">
+      <c r="BF4" s="4">
         <v>45068</v>
       </c>
-      <c r="BG4" s="11">
+      <c r="BG4" s="5">
         <v>45075</v>
       </c>
     </row>
     <row r="5" spans="2:59" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="35" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="35" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="35" t="s">
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="36" t="s">
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36" t="s">
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="21" t="s">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="15"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="9"/>
     </row>
     <row r="6" spans="2:59" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="30" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="34" t="s">
-        <v>21</v>
+      <c r="K6" s="40"/>
+      <c r="L6" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="M6" s="31"/>
       <c r="N6" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
       <c r="R6" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
       <c r="V6" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W6" s="31"/>
       <c r="X6" s="31"/>
       <c r="Y6" s="31"/>
       <c r="Z6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA6" s="31"/>
       <c r="AB6" s="31"/>
       <c r="AC6" s="31"/>
-      <c r="AD6" s="39" t="s">
+      <c r="AD6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE6" s="31" t="s">
         <v>38</v>
-      </c>
-      <c r="AE6" s="31" t="s">
-        <v>39</v>
       </c>
       <c r="AF6" s="31"/>
       <c r="AG6" s="31"/>
       <c r="AH6" s="31"/>
       <c r="AI6" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ6" s="31"/>
       <c r="AK6" s="31"/>
       <c r="AL6" s="31"/>
       <c r="AM6" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN6" s="31"/>
       <c r="AO6" s="31"/>
       <c r="AP6" s="31"/>
       <c r="AQ6" s="31"/>
-      <c r="AR6" s="34" t="s">
-        <v>50</v>
+      <c r="AR6" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="AS6" s="31"/>
       <c r="AT6" s="31"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="34" t="s">
-        <v>66</v>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="AW6" s="31"/>
       <c r="AX6" s="31"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="16"/>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="17"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="11"/>
     </row>
     <row r="7" spans="2:59" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="34" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="30" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="34" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="30" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="31"/>
@@ -1437,192 +1437,157 @@
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="41" t="s">
+      <c r="U7" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
       <c r="AC7" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD7" s="31"/>
       <c r="AE7" s="31"/>
       <c r="AF7" s="31"/>
       <c r="AG7" s="31"/>
       <c r="AH7" s="31"/>
-      <c r="AI7" s="32" t="s">
-        <v>47</v>
+      <c r="AI7" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AN7" s="31"/>
       <c r="AO7" s="31"/>
       <c r="AP7" s="31"/>
       <c r="AQ7" s="31"/>
-      <c r="AR7" s="34" t="s">
-        <v>43</v>
+      <c r="AR7" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="AS7" s="31"/>
       <c r="AT7" s="31"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="34" t="s">
-        <v>67</v>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="AW7" s="31"/>
       <c r="AX7" s="31"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="17"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="11"/>
     </row>
     <row r="8" spans="2:59" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="3" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="3" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="40" t="s">
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="23"/>
-      <c r="AZ8" s="18"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="18"/>
-      <c r="BE8" s="19"/>
-      <c r="BF8" s="19"/>
-      <c r="BG8" s="20"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="41"/>
+      <c r="AV8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="36"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="14"/>
     </row>
     <row r="10" spans="2:59" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AV6:AX6"/>
-    <mergeCell ref="AV7:AX7"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="AI5:AN5"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AV5:AX5"/>
-    <mergeCell ref="AV8:AX8"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="T3:AI3"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AK8:AQ8"/>
-    <mergeCell ref="AR6:AU6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE6:AH7"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AR8:AU8"/>
-    <mergeCell ref="AR7:AU7"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="U7:W8"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="L7:P8"/>
-    <mergeCell ref="Q7:T8"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P3:S3"/>
     <mergeCell ref="AZ3:BC3"/>
     <mergeCell ref="BD3:BG3"/>
     <mergeCell ref="AY5:AY8"/>
@@ -1639,7 +1604,42 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="L7:P8"/>
+    <mergeCell ref="Q7:T8"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="U7:W8"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AV8:AX8"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="T3:AI3"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AK8:AQ8"/>
+    <mergeCell ref="AR6:AU6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE6:AH7"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AR8:AU8"/>
+    <mergeCell ref="AR7:AU7"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="AV7:AX7"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="AI5:AN5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AV5:AX5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
